--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>snopy669@gmail.com</t>
+          <t>innaku@gmail.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>337085518</t>
+          <t>334093895</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -486,12 +486,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>קריספל ורציק שני-0506864400</t>
+          <t>05229041460</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;-</t>
+          <t>אהרליך אינה</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -506,17 +506,1227 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>מדריך תותח</t>
+          <t>שני ובלו</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>קריספל ורציק</t>
+          <t>אהרליך</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>דוריאן</t>
+          <t>ליאן</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rikibowen@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>217437383</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0549719870</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>בואן ריקי</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>בואן</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>עדן</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>itayby17@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>332873314</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0549222609</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>בן יעקב איתי</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>שני ובלו</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>בן יעקב</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>עלמה</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lilachdb@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>217551266</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0547886642</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ברוך לילך</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ברוך</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>אלה</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>einav@nmco.co.il</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>218667657</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0507700519</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>גניש עינב</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>שני ובלו</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>גניש חמו</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>אריאל</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>erezhorev@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>218714160</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0507376272</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>הילב חורב לירון</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>שני ובלו</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>חורב</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>רות</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rinatvoda@gmail.com</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>218511335</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0542050445</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>וודה רינת</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>איזדיאן</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>מעיין</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>maytalashvat@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>218149797</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0546719630</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>טייב מיטל</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>עידו</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>טייב</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>מרום ים</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>naama.yoels@gmail.com</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>333039642</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0528508314</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>יואלס נעמה</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>עידו</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>יואלס</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>אורי</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>giljo18@gmail.com</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>218241545</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0547820918</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>יוחננוף גיל</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>יוחננוף</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>נגה</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>tomer.jacov@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>333015477</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0507687042</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>יעקב תומר</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>יעקב</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>מיקה</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ehudya@gmail.com</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>333200483</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0543183183</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ירצון אהוד</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>שני ובלו</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ירצון</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>מאיה</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>hagitm@ayr.co.il</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>333139079</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>מזרחי חגית-054-8098107</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>לא נמצא</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>מזרחי</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>נעמה</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ravita76@gmail.com</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>333007151</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0507914914</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>מזרחי רוית</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>מזרחי</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>יובל</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>hagitmachpod@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>332885540</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0544281626</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>מחפוד חגית חוה</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>שני ובלו</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>מחפוד</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ליה</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>limor557@gmail.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>218667194</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0503606023</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>מסר לימור</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>מסר</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>יובל</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>saban.yaniv@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>218327609</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0504242146</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>סבן שושי</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>סבן</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>נועה</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ati70@walla.co.il</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>332223270</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0522332054</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>סגל ממן ליאת</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ממן</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>יעל</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>hadarfarbman@gmail.com</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>332990969</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0523646938</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>פרבמן הדר</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>פרבמן</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>תלמה</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lbarda78@gmail.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>218243442</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0526787414</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>פשה ליאת</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>שני ובלו</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>פשה</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>שקד</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>lina.cogan@gmail.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>333595379</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0548882407</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>קוגן לינה</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>אובזילר</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>מיקה</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ramiri12@015.net.il</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>332872829</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0545343922</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>שעיה מירי</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>שעיה</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>לידור</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>liat_tehila@hotmail.com</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>218327658</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0523821389</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>תהילה ליאת</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>לא</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>אין</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>עיינה</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>תהילה</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>יעל</t>
         </is>
       </c>
     </row>
